--- a/text/your_language.xlsx
+++ b/text/your_language.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D017D54-CAD6-4322-9119-5A44811EF079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D89B38-94B7-440A-AF26-CD659F6721DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="your_language" sheetId="3" r:id="rId1"/>
-    <sheet name="your_language_common" sheetId="4" r:id="rId2"/>
+    <sheet name="translation" sheetId="3" r:id="rId1"/>
+    <sheet name="common" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3032,9 +3032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC84E5-621A-4D4C-80FE-0993A9D0C53C}">
   <dimension ref="A1:H588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:D80"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9011,7 +9009,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
